--- a/paper/data/numaperf-performance.xlsx
+++ b/paper/data/numaperf-performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/NumaPerf/paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1BAEF1-1B3C-2749-8A8A-47ED18D40734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382496F-3247-104F-AC63-C42020443B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>blackscholes</t>
   </si>
@@ -170,18 +170,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,7 +215,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -551,7 +545,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="ltHorz">
+            <a:pattFill prst="narVert">
               <a:fgClr>
                 <a:scrgbClr r="0" g="0" b="0"/>
               </a:fgClr>
@@ -866,20 +860,2217 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8834946057168277E-2"/>
+          <c:y val="0.1037416429163404"/>
+          <c:w val="0.88587198309420545"/>
+          <c:h val="0.69709126115049236"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NumaPerf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.2297231630000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87742407389999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43122838190000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65384421500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.335853242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83521149289999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31266629210000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5800362402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.061421637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0535676169999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60457054799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0134135980000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75274814410000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C991-3845-B564-717D6A2A65D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMAPROF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.601609064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.742332282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.276619087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7784882719999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1986600159999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.828940426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.087240132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.678584101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.569182732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6444782760000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8766044230000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9375358390000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5003994220000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C991-3845-B564-717D6A2A65D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="590564368"/>
+        <c:axId val="591319312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="590564368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591319312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591319312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.7319541763986207E-3"/>
+              <c:y val="0.22389742037151791"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="590564368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29179562326981406"/>
+          <c:y val="1.6597094637199928E-2"/>
+          <c:w val="0.41779903262842893"/>
+          <c:h val="7.6079818521007189E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.007551455058016E-2"/>
+          <c:y val="0.10220734908136483"/>
+          <c:w val="0.89449238668398778"/>
+          <c:h val="0.70819706911636049"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NumaPerf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$51:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.127969175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.540915493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6991584629999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5065502190000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.166971712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8424477990000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.054311475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8022112300000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.51918191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.31273509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0231900449999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.31367871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6591101100000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E394-B34C-8C06-446BA46EDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMAPROF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$51:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>39.9584896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>552.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.90684602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.046579340000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1580.010657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.443550569999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2247541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.707219010000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.08367209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>441.04030080000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.266968329999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>866.03578849999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>316.51873549999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E394-B34C-8C06-446BA46EDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="116415392"/>
+        <c:axId val="117209088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="116415392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117209088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117209088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2626262626262626E-2"/>
+              <c:y val="0.34587532808398952"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116415392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26578536900059208"/>
+          <c:y val="1.6666666666666666E-2"/>
+          <c:w val="0.4922787587157666"/>
+          <c:h val="6.4311461067366571E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>393701</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>122408</xdr:rowOff>
+      <xdr:colOff>682337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>482601</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>62871</xdr:rowOff>
+      <xdr:colOff>771237</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>192756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1022,6 +3213,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>701384</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787490</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1E1A89-38EF-6E45-82E3-C0B678F29530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>773546</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>777356</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>148071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82359110-DBF8-DD42-9337-DF6E60C5603B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1341,6 +3604,220 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04171</cdr:x>
+      <cdr:y>0.07858</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10332</cdr:x>
+      <cdr:y>0.84727</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769BF3D3-182F-F649-BC4B-BFDD12707315}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="381001" y="360795"/>
+          <a:ext cx="562842" cy="3529160"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1E+3</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="8300"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1E+2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="8500"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1E+1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="8500"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40192</cdr:x>
+      <cdr:y>0.10857</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.46511</cdr:x>
+      <cdr:y>0.15572</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2924B6A6-AEC7-3540-A977-4CDF1BD544CC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3671457" y="498478"/>
+          <a:ext cx="577272" cy="216478"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3.20</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1638,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="108" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1929,6 +4406,339 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.2297231630000003E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.601609064</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.87742407389999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.742332282</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.43122838190000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.276619087</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.65384421500000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.7784882719999999</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.335853242</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3.1986600159999998</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.83521149289999996</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.828940426</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.31266629210000002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.087240132</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.5800362402</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.678584101</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.061421637</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.569182732</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.0535676169999999</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.6444782760000001</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.60457054799999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.8766044230000001</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.0134135980000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.9375358390000001</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.75274814410000002</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2.5003994220000001</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.127969175</v>
+      </c>
+      <c r="C51" s="3">
+        <v>39.9584896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7.540915493</v>
+      </c>
+      <c r="C52" s="3">
+        <v>552.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.6991584629999998</v>
+      </c>
+      <c r="C53" s="3">
+        <v>18.90684602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4.5065502190000002</v>
+      </c>
+      <c r="C54" s="3">
+        <v>60.046579340000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.166971712</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1580.010657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6.8424477990000003</v>
+      </c>
+      <c r="C56" s="3">
+        <v>67.443550569999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.054311475</v>
+      </c>
+      <c r="C57" s="3">
+        <v>12.2247541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3.8022112300000002</v>
+      </c>
+      <c r="C58" s="3">
+        <v>47.707219010000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3">
+        <v>11.51918191</v>
+      </c>
+      <c r="C59" s="3">
+        <v>37.08367209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3">
+        <v>11.31273509</v>
+      </c>
+      <c r="C60" s="3">
+        <v>441.04030080000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4.0231900449999998</v>
+      </c>
+      <c r="C61" s="3">
+        <v>75.266968329999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="3">
+        <v>10.31367871</v>
+      </c>
+      <c r="C62" s="3">
+        <v>866.03578849999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5.6591101100000003</v>
+      </c>
+      <c r="C64" s="3">
+        <v>316.51873549999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/data/numaperf-performance.xlsx
+++ b/paper/data/numaperf-performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/NumaPerf/paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382496F-3247-104F-AC63-C42020443B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C105DD8-DBD0-444C-93C8-99E137BEF12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>blackscholes</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>x264</t>
-  </si>
-  <si>
-    <t>memory</t>
   </si>
   <si>
     <t>AVERAGE</t>
@@ -969,43 +966,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.2297231630000003E-2</c:v>
+                  <c:v>5.3010318780000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87742407389999999</c:v>
+                  <c:v>0.86261004259999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43122838190000001</c:v>
+                  <c:v>0.50570348249999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65384421500000001</c:v>
+                  <c:v>0.66092275519999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.335853242</c:v>
+                  <c:v>0.32020804819999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83521149289999996</c:v>
+                  <c:v>0.83628302610000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31266629210000002</c:v>
+                  <c:v>0.15770070750000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5800362402</c:v>
+                  <c:v>0.58533654999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.061421637</c:v>
+                  <c:v>1.062399162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0535676169999999</c:v>
+                  <c:v>1.1416881290000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60457054799999999</c:v>
+                  <c:v>0.6098904463</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0134135980000001</c:v>
+                  <c:v>1.016340394</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75274814410000002</c:v>
+                  <c:v>0.76776065969999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,10 +1189,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1240,13 +1234,24 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1254,49 +1259,37 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Execution</a:t>
+                  <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" sz="1400" b="1" i="0" baseline="0">
+                  <a:rPr lang="zh-CN" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> </a:t>
+                  <a:t>  </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>T</a:t>
+                  <a:t>Runtime</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>ime</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
+                <a:endParaRPr lang="en-US" sz="1400" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1305,8 +1298,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="9.7319541763986207E-3"/>
-              <c:y val="0.22389742037151791"/>
+              <c:x val="2.0815665034583136E-2"/>
+              <c:y val="0.22939805791602783"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1321,13 +1314,24 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1362,7 +1366,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.29179562326981406"/>
           <c:y val="1.6597094637199928E-2"/>
-          <c:w val="0.41779903262842893"/>
+          <c:w val="0.43165365676238293"/>
           <c:h val="7.6079818521007189E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1381,10 +1385,7 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1549,43 +1550,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.127969175</c:v>
+                  <c:v>1.1298227590000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.540915493</c:v>
+                  <c:v>7.2880281690000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6991584629999998</c:v>
+                  <c:v>3.2040809700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5065502190000002</c:v>
+                  <c:v>4.5806040760000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.166971712</c:v>
+                  <c:v>2.0902972449999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8424477990000003</c:v>
+                  <c:v>6.8593509900000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.054311475</c:v>
+                  <c:v>1.4378073769999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8022112300000002</c:v>
+                  <c:v>3.8488993119999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.51918191</c:v>
+                  <c:v>11.54513889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.31273509</c:v>
+                  <c:v>13.85760344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0231900449999998</c:v>
+                  <c:v>4.0727752639999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.31367871</c:v>
+                  <c:v>10.38341934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6591101100000003</c:v>
+                  <c:v>5.8581523190000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,7 +1612,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct50">
+            <a:pattFill prst="dkDnDiag">
               <a:fgClr>
                 <a:scrgbClr r="0" g="0" b="0"/>
               </a:fgClr>
@@ -1769,10 +1770,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1812,12 +1810,81 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ime</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2626262626262626E-2"/>
-              <c:y val="0.34587532808398952"/>
+              <c:x val="1.6820319870193775E-2"/>
+              <c:y val="0.21817679558011049"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1833,12 +1900,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1919,10 +1983,7 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -1974,6 +2035,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3216,15 +3278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>701384</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78795</xdr:rowOff>
+      <xdr:colOff>587084</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>193095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>787490</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>22915</xdr:rowOff>
+      <xdr:colOff>673190</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3769,12 +3831,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.40192</cdr:x>
-      <cdr:y>0.10857</cdr:y>
+      <cdr:x>0.39638</cdr:x>
+      <cdr:y>0.09757</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.46511</cdr:x>
-      <cdr:y>0.15572</cdr:y>
+      <cdr:x>0.45957</cdr:x>
+      <cdr:y>0.14472</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3789,8 +3851,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3671457" y="498478"/>
-          <a:ext cx="577272" cy="216478"/>
+          <a:off x="3633418" y="450561"/>
+          <a:ext cx="579278" cy="217730"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3805,7 +3867,187 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>3.20</a:t>
+            <a:t>3.19</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13561</cdr:x>
+      <cdr:y>0.10497</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.17221</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20114F56-FD7E-FA4E-86FD-16FC0C7AEFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1231900" y="482599"/>
+          <a:ext cx="7852410" cy="309130"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>552</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1580</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                                                                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>441</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>866</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>316</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4117,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4144,17 +4386,15 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -4389,7 +4629,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5">
         <v>1.329333619</v>
@@ -4407,14 +4647,12 @@
       <c r="H17" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -4423,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="3">
-        <v>5.2297231630000003E-2</v>
+        <v>5.3010318780000003E-2</v>
       </c>
       <c r="C27" s="3">
         <v>1.601609064</v>
@@ -4435,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>0.87742407389999999</v>
+        <v>0.86261004259999996</v>
       </c>
       <c r="C28" s="3">
         <v>2.742332282</v>
@@ -4447,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3">
-        <v>0.43122838190000001</v>
+        <v>0.50570348249999997</v>
       </c>
       <c r="C29" s="3">
         <v>1.276619087</v>
@@ -4459,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="3">
-        <v>0.65384421500000001</v>
+        <v>0.66092275519999999</v>
       </c>
       <c r="C30" s="3">
         <v>1.7784882719999999</v>
@@ -4471,7 +4709,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3">
-        <v>0.335853242</v>
+        <v>0.32020804819999998</v>
       </c>
       <c r="C31" s="3">
         <v>3.1986600159999998</v>
@@ -4483,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.83521149289999996</v>
+        <v>0.83628302610000005</v>
       </c>
       <c r="C32" s="3">
         <v>1.828940426</v>
@@ -4495,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="3">
-        <v>0.31266629210000002</v>
+        <v>0.15770070750000001</v>
       </c>
       <c r="C33" s="3">
         <v>1.087240132</v>
@@ -4507,7 +4745,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="3">
-        <v>0.5800362402</v>
+        <v>0.58533654999999996</v>
       </c>
       <c r="C34" s="3">
         <v>1.678584101</v>
@@ -4519,7 +4757,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="3">
-        <v>1.061421637</v>
+        <v>1.062399162</v>
       </c>
       <c r="C35" s="3">
         <v>1.569182732</v>
@@ -4531,7 +4769,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>1.0535676169999999</v>
+        <v>1.1416881290000001</v>
       </c>
       <c r="C36" s="3">
         <v>2.6444782760000001</v>
@@ -4543,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="3">
-        <v>0.60457054799999999</v>
+        <v>0.6098904463</v>
       </c>
       <c r="C37" s="3">
         <v>1.8766044230000001</v>
@@ -4555,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>1.0134135980000001</v>
+        <v>1.016340394</v>
       </c>
       <c r="C38" s="3">
         <v>2.9375358390000001</v>
@@ -4570,10 +4808,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3">
-        <v>0.75274814410000002</v>
+        <v>0.76776065969999996</v>
       </c>
       <c r="C40" s="3">
         <v>2.5003994220000001</v>
@@ -4581,14 +4819,12 @@
       <c r="D40" s="3"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A50" s="7"/>
       <c r="B50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4596,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="3">
-        <v>1.127969175</v>
+        <v>1.1298227590000001</v>
       </c>
       <c r="C51" s="3">
         <v>39.9584896</v>
@@ -4607,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="3">
-        <v>7.540915493</v>
+        <v>7.2880281690000004</v>
       </c>
       <c r="C52" s="3">
         <v>552.5</v>
@@ -4618,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3">
-        <v>2.6991584629999998</v>
+        <v>3.2040809700000001</v>
       </c>
       <c r="C53" s="3">
         <v>18.90684602</v>
@@ -4629,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>4.5065502190000002</v>
+        <v>4.5806040760000002</v>
       </c>
       <c r="C54" s="3">
         <v>60.046579340000001</v>
@@ -4640,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3">
-        <v>2.166971712</v>
+        <v>2.0902972449999999</v>
       </c>
       <c r="C55" s="3">
         <v>1580.010657</v>
@@ -4651,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3">
-        <v>6.8424477990000003</v>
+        <v>6.8593509900000003</v>
       </c>
       <c r="C56" s="3">
         <v>67.443550569999999</v>
@@ -4662,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="3">
-        <v>2.054311475</v>
+        <v>1.4378073769999999</v>
       </c>
       <c r="C57" s="3">
         <v>12.2247541</v>
@@ -4673,7 +4909,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3">
-        <v>3.8022112300000002</v>
+        <v>3.8488993119999999</v>
       </c>
       <c r="C58" s="3">
         <v>47.707219010000003</v>
@@ -4684,7 +4920,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="3">
-        <v>11.51918191</v>
+        <v>11.54513889</v>
       </c>
       <c r="C59" s="3">
         <v>37.08367209</v>
@@ -4695,7 +4931,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="3">
-        <v>11.31273509</v>
+        <v>13.85760344</v>
       </c>
       <c r="C60" s="3">
         <v>441.04030080000001</v>
@@ -4706,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="3">
-        <v>4.0231900449999998</v>
+        <v>4.0727752639999997</v>
       </c>
       <c r="C61" s="3">
         <v>75.266968329999997</v>
@@ -4717,7 +4953,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>10.31367871</v>
+        <v>10.38341934</v>
       </c>
       <c r="C62" s="3">
         <v>866.03578849999997</v>
@@ -4730,10 +4966,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="3">
-        <v>5.6591101100000003</v>
+        <v>5.8581523190000002</v>
       </c>
       <c r="C64" s="3">
         <v>316.51873549999999</v>
